--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1444142.698356632</v>
+        <v>1438204.389545457</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5135999.21152738</v>
+        <v>5135999.211527381</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>329.0460761294037</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0254239328587</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.54678142935649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>355.0254239328587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>32.00042303077528</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -1463,13 +1463,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H12" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>98.48747671010854</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>37.4572441970652</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>101.5535788905865</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U13" t="n">
         <v>282.5296095801456</v>
       </c>
       <c r="V13" t="n">
-        <v>162.8407964616269</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="C14" t="n">
-        <v>31.13910903871104</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>312.7063934000621</v>
       </c>
       <c r="F14" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H14" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H15" t="n">
-        <v>75.84199783012949</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I15" t="n">
-        <v>7.638300348564727</v>
+        <v>1.430435921434091</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>48.18991806441961</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>72.12881553853435</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.992301087403</v>
+        <v>63.11239618002578</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T16" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>158.3626537333325</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>355.0254239328589</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
-        <v>107.7471318499246</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I17" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.3842387110332</v>
@@ -1982,10 +1982,10 @@
         <v>207.8836805229861</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>172.3519478092002</v>
+        <v>167.1709843844465</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5296095801456</v>
       </c>
       <c r="V19" t="n">
-        <v>216.0250030777533</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>124.797575569209</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,70 +2086,70 @@
         <v>355.0254239328589</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>312.7063934000619</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>355.0254239328589</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>59.6903509230232</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>253.0160424770386</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>67.48604073393061</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>62.14028442723487</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>164.9885133500657</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>153.738970857231</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5296095801456</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>312.7063934000619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>355.0254239328589</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>215.2302038254279</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>113.8158723039764</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>338.6857412035168</v>
-      </c>
-      <c r="W23" t="n">
-        <v>355.0254239328589</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>67.48604073393061</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2462,7 +2462,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>108.9968094100517</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>33.10076772910323</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>104.0309717842898</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,70 +2557,70 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>297.9069670906929</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31.13910903871103</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>338.6857412035168</v>
+      </c>
+      <c r="W26" t="n">
         <v>355.0254239328589</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>355.0254239328589</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>211.4621965088955</v>
-      </c>
-      <c r="U26" t="n">
-        <v>253.0160424770386</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>203.2535783469868</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>102.3670447411914</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>170.3842387110332</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8836805229861</v>
+        <v>87.26831025755457</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -2702,7 +2702,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.8210623695886</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.2811567902616</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>22.53686296892511</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.768007316532043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>355.0254239328587</v>
+        <v>3.768007316532318</v>
       </c>
       <c r="X29" t="n">
-        <v>355.0254239328587</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>69.34291791938072</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>181.4626475594422</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.940987389582157</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>58.92248588451669</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5296095801456</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="D32" t="n">
-        <v>342.4537485200491</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>312.7063934000622</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>355.0254239328589</v>
       </c>
       <c r="X32" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.6609829984442</v>
+        <v>102.9686911364992</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>170.3842387110332</v>
@@ -3167,16 +3167,16 @@
         <v>207.8836805229861</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>148.6070226477071</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.0309717842898</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>101.4858210205165</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.0696442509355</v>
@@ -3246,7 +3246,7 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>50.61552188340787</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>221.7331387841861</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>355.0254239328589</v>
       </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>215.2302038254279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>75.12434108249533</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.3842387110332</v>
@@ -3404,16 +3404,16 @@
         <v>207.8836805229861</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>9.373023753728384</v>
       </c>
     </row>
     <row r="37">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>69.75013149071115</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>183.2811567902616</v>
@@ -3480,16 +3480,16 @@
         <v>229.0696442509355</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>19.58316790250279</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>355.0254239328587</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>355.0254239328587</v>
       </c>
       <c r="F38" t="n">
         <v>355.0254239328587</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>148.2749992126778</v>
       </c>
       <c r="H38" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.61552188340787</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>113.8158723039764</v>
       </c>
       <c r="T38" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>44.54678142935605</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>355.0254239328587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>102.1008493388682</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>7.638300348564727</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.7779062215934</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.8836805229861</v>
@@ -3644,10 +3644,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3666,13 +3666,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>165.5669519213864</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>100.576665790067</v>
       </c>
       <c r="T40" t="n">
-        <v>144.4166967244388</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>312.7063934000619</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>355.0254239328588</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>117.5838796205087</v>
+        <v>355.0254239328588</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>355.0254239328588</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>32.50445879338836</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>117.6609829984442</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>206.2557954874623</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3884,7 +3884,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>104.7875771589502</v>
+        <v>168.3635375726495</v>
       </c>
       <c r="T43" t="n">
         <v>229.0696442509355</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>355.0254239328588</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>198.8905210960856</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>260.3720351891523</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>355.0254239328588</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4067,13 +4067,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>11.24587475566779</v>
       </c>
       <c r="G45" t="n">
-        <v>19.92659466340331</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>7.638300348564727</v>
@@ -4109,7 +4109,7 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T45" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T46" t="n">
-        <v>229.0696442509355</v>
+        <v>158.7759555902885</v>
       </c>
       <c r="U46" t="n">
         <v>282.5296095801456</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>188.5493352581767</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>719.3833471088332</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="C11" t="n">
-        <v>387.0135732407486</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="D11" t="n">
-        <v>387.0135732407486</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="E11" t="n">
-        <v>28.4020339146287</v>
+        <v>732.9264505337283</v>
       </c>
       <c r="F11" t="n">
-        <v>28.4020339146287</v>
+        <v>732.9264505337283</v>
       </c>
       <c r="G11" t="n">
-        <v>28.4020339146287</v>
+        <v>374.314911207608</v>
       </c>
       <c r="H11" t="n">
-        <v>28.4020339146287</v>
+        <v>73.39878283317063</v>
       </c>
       <c r="I11" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J11" t="n">
         <v>100.0727921248346</v>
       </c>
       <c r="K11" t="n">
-        <v>240.4687168143662</v>
+        <v>240.4687168143663</v>
       </c>
       <c r="L11" t="n">
-        <v>438.6284212562728</v>
+        <v>438.6284212562733</v>
       </c>
       <c r="M11" t="n">
-        <v>679.7044080739718</v>
+        <v>679.7044080739724</v>
       </c>
       <c r="N11" t="n">
-        <v>927.680231841807</v>
+        <v>927.6802318418078</v>
       </c>
       <c r="O11" t="n">
-        <v>1153.168850648441</v>
+        <v>1153.168850648442</v>
       </c>
       <c r="P11" t="n">
-        <v>1323.19251937801</v>
+        <v>1323.192519378011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1419.560928496657</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R11" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S11" t="n">
-        <v>1420.101695731435</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T11" t="n">
-        <v>1420.101695731435</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="U11" t="n">
-        <v>1420.101695731435</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="V11" t="n">
-        <v>1077.994886434953</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="W11" t="n">
-        <v>1077.994886434953</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="X11" t="n">
-        <v>1077.994886434953</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="Y11" t="n">
-        <v>719.3833471088332</v>
+        <v>1091.537989859848</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.5426399768094</v>
+        <v>598.8231536613091</v>
       </c>
       <c r="C12" t="n">
-        <v>365.8884095369016</v>
+        <v>448.1689232214013</v>
       </c>
       <c r="D12" t="n">
-        <v>365.8884095369016</v>
+        <v>415.8452635943556</v>
       </c>
       <c r="E12" t="n">
-        <v>229.4419186477893</v>
+        <v>279.3987727052433</v>
       </c>
       <c r="F12" t="n">
-        <v>105.0101125309211</v>
+        <v>154.9669665883751</v>
       </c>
       <c r="G12" t="n">
-        <v>105.0101125309211</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H12" t="n">
-        <v>28.4020339146287</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I12" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J12" t="n">
-        <v>58.85704598873458</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K12" t="n">
-        <v>161.7101484975362</v>
+        <v>426.4446994770904</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1184894326825</v>
+        <v>594.8530404122367</v>
       </c>
       <c r="M12" t="n">
-        <v>539.225044307698</v>
+        <v>803.9595952872523</v>
       </c>
       <c r="N12" t="n">
-        <v>763.2316466695177</v>
+        <v>1027.966197649072</v>
       </c>
       <c r="O12" t="n">
-        <v>1114.706816363048</v>
+        <v>1218.44560868897</v>
       </c>
       <c r="P12" t="n">
-        <v>1255.01684362595</v>
+        <v>1358.755635951872</v>
       </c>
       <c r="Q12" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R12" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S12" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T12" t="n">
-        <v>1247.996404104128</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U12" t="n">
-        <v>1247.996404104128</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V12" t="n">
-        <v>1025.456402475196</v>
+        <v>1197.561694102503</v>
       </c>
       <c r="W12" t="n">
-        <v>795.3391566084824</v>
+        <v>967.4444482357901</v>
       </c>
       <c r="X12" t="n">
-        <v>695.8568569013021</v>
+        <v>778.1373705858018</v>
       </c>
       <c r="Y12" t="n">
-        <v>516.5426399768094</v>
+        <v>598.8231536613091</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.7642111036654</v>
+        <v>168.8170067304385</v>
       </c>
       <c r="C13" t="n">
-        <v>434.7642111036654</v>
+        <v>168.8170067304385</v>
       </c>
       <c r="D13" t="n">
-        <v>434.7642111036654</v>
+        <v>168.8170067304385</v>
       </c>
       <c r="E13" t="n">
-        <v>434.7642111036654</v>
+        <v>168.8170067304385</v>
       </c>
       <c r="F13" t="n">
-        <v>277.4382763166384</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="G13" t="n">
-        <v>277.4382763166384</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="H13" t="n">
         <v>130.9814065313828</v>
       </c>
       <c r="I13" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J13" t="n">
-        <v>68.94056019848824</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K13" t="n">
-        <v>266.320258155926</v>
+        <v>162.8094700877218</v>
       </c>
       <c r="L13" t="n">
-        <v>578.3052781614903</v>
+        <v>474.794490093286</v>
       </c>
       <c r="M13" t="n">
-        <v>644.8014124057113</v>
+        <v>541.2906243375071</v>
       </c>
       <c r="N13" t="n">
-        <v>980.1790909372257</v>
+        <v>876.6683028690215</v>
       </c>
       <c r="O13" t="n">
-        <v>1093.244026157468</v>
+        <v>1179.943361355555</v>
       </c>
       <c r="P13" t="n">
-        <v>1333.402360533349</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q13" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R13" t="n">
-        <v>1341.82569151593</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S13" t="n">
-        <v>1341.82569151593</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T13" t="n">
-        <v>1341.82569151593</v>
+        <v>1188.718216690087</v>
       </c>
       <c r="U13" t="n">
-        <v>1056.442247495581</v>
+        <v>903.334772669738</v>
       </c>
       <c r="V13" t="n">
-        <v>891.956594504039</v>
+        <v>637.3554274905622</v>
       </c>
       <c r="W13" t="n">
-        <v>891.956594504039</v>
+        <v>354.0250254217398</v>
       </c>
       <c r="X13" t="n">
-        <v>657.8762722870221</v>
+        <v>354.0250254217398</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.7642111036654</v>
+        <v>354.0250254217398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>719.3833471088337</v>
+        <v>1061.490156405316</v>
       </c>
       <c r="C14" t="n">
-        <v>687.9297016151862</v>
+        <v>1061.490156405316</v>
       </c>
       <c r="D14" t="n">
-        <v>687.9297016151862</v>
+        <v>1061.490156405316</v>
       </c>
       <c r="E14" t="n">
-        <v>687.9297016151862</v>
+        <v>745.6251125668693</v>
       </c>
       <c r="F14" t="n">
-        <v>329.318162289066</v>
+        <v>387.013573240749</v>
       </c>
       <c r="G14" t="n">
-        <v>329.318162289066</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H14" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I14" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0727921248346</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K14" t="n">
         <v>240.4687168143662</v>
       </c>
       <c r="L14" t="n">
-        <v>438.6284212562732</v>
+        <v>438.6284212562733</v>
       </c>
       <c r="M14" t="n">
-        <v>679.7044080739721</v>
+        <v>679.7044080739723</v>
       </c>
       <c r="N14" t="n">
-        <v>927.6802318418073</v>
+        <v>927.6802318418077</v>
       </c>
       <c r="O14" t="n">
         <v>1153.168850648442</v>
@@ -5299,7 +5299,7 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q14" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R14" t="n">
         <v>1420.101695731436</v>
@@ -5314,16 +5314,16 @@
         <v>1420.101695731436</v>
       </c>
       <c r="V14" t="n">
-        <v>1077.994886434954</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="W14" t="n">
-        <v>1077.994886434954</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="X14" t="n">
-        <v>1077.994886434954</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Y14" t="n">
-        <v>1077.994886434954</v>
+        <v>1420.101695731436</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.3470622528691</v>
+        <v>766.9259699006607</v>
       </c>
       <c r="C15" t="n">
-        <v>503.6928318129614</v>
+        <v>616.2717394607529</v>
       </c>
       <c r="D15" t="n">
-        <v>373.6038644344417</v>
+        <v>486.1827720822332</v>
       </c>
       <c r="E15" t="n">
-        <v>237.1573735453294</v>
+        <v>349.7362811931209</v>
       </c>
       <c r="F15" t="n">
-        <v>112.7255674284613</v>
+        <v>225.3044750762527</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7255674284613</v>
+        <v>106.4549973000465</v>
       </c>
       <c r="H15" t="n">
-        <v>36.11748881216884</v>
+        <v>29.84691868375407</v>
       </c>
       <c r="I15" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J15" t="n">
-        <v>58.8570459887346</v>
+        <v>58.85704598873464</v>
       </c>
       <c r="K15" t="n">
-        <v>161.7101484975363</v>
+        <v>161.7101484975364</v>
       </c>
       <c r="L15" t="n">
-        <v>467.3844730805257</v>
+        <v>330.1184894326827</v>
       </c>
       <c r="M15" t="n">
-        <v>676.4910279555412</v>
+        <v>539.2250443076982</v>
       </c>
       <c r="N15" t="n">
-        <v>1027.966197649072</v>
+        <v>763.2316466695179</v>
       </c>
       <c r="O15" t="n">
-        <v>1218.44560868897</v>
+        <v>953.7110577094159</v>
       </c>
       <c r="P15" t="n">
-        <v>1358.755635951872</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q15" t="n">
         <v>1420.101695731436</v>
@@ -5387,22 +5387,22 @@
         <v>1307.652556102448</v>
       </c>
       <c r="T15" t="n">
-        <v>1135.547264475141</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="U15" t="n">
-        <v>925.5637487953572</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="V15" t="n">
-        <v>703.0237471664243</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="W15" t="n">
-        <v>703.0237471664243</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="X15" t="n">
-        <v>654.3470622528691</v>
+        <v>946.2401868251534</v>
       </c>
       <c r="Y15" t="n">
-        <v>654.3470622528691</v>
+        <v>766.9259699006607</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403.2751052735448</v>
+        <v>560.6697890712777</v>
       </c>
       <c r="C16" t="n">
-        <v>403.2751052735448</v>
+        <v>560.6697890712777</v>
       </c>
       <c r="D16" t="n">
-        <v>330.4177158406818</v>
+        <v>405.0366759737925</v>
       </c>
       <c r="E16" t="n">
-        <v>174.8589036998843</v>
+        <v>249.477863832995</v>
       </c>
       <c r="F16" t="n">
-        <v>174.8589036998843</v>
+        <v>92.1519290459679</v>
       </c>
       <c r="G16" t="n">
-        <v>174.8589036998843</v>
+        <v>92.1519290459679</v>
       </c>
       <c r="H16" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I16" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J16" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K16" t="n">
-        <v>60.92665912938514</v>
+        <v>60.92665912938518</v>
       </c>
       <c r="L16" t="n">
-        <v>121.9857500741727</v>
+        <v>372.9116791349495</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1722046269416</v>
+        <v>715.0981336877184</v>
       </c>
       <c r="N16" t="n">
-        <v>789.9689676709354</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O16" t="n">
-        <v>1093.244026157469</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P16" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q16" t="n">
         <v>1420.101695731436</v>
@@ -5463,25 +5463,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S16" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T16" t="n">
-        <v>1188.718216690087</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="U16" t="n">
-        <v>903.3347726697375</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="V16" t="n">
-        <v>637.3554274905617</v>
+        <v>968.9898689459357</v>
       </c>
       <c r="W16" t="n">
-        <v>637.3554274905617</v>
+        <v>968.9898689459357</v>
       </c>
       <c r="X16" t="n">
-        <v>403.2751052735448</v>
+        <v>968.9898689459357</v>
       </c>
       <c r="Y16" t="n">
-        <v>403.2751052735448</v>
+        <v>745.877807762579</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>489.2804387873817</v>
+        <v>687.9297016151862</v>
       </c>
       <c r="C17" t="n">
-        <v>489.2804387873817</v>
+        <v>687.9297016151862</v>
       </c>
       <c r="D17" t="n">
-        <v>489.2804387873817</v>
+        <v>687.9297016151862</v>
       </c>
       <c r="E17" t="n">
-        <v>489.2804387873817</v>
+        <v>329.318162289066</v>
       </c>
       <c r="F17" t="n">
-        <v>380.4449520702861</v>
+        <v>329.318162289066</v>
       </c>
       <c r="G17" t="n">
-        <v>380.4449520702861</v>
+        <v>329.318162289066</v>
       </c>
       <c r="H17" t="n">
-        <v>79.52882369584879</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I17" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J17" t="n">
-        <v>100.0727921248354</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K17" t="n">
-        <v>240.4687168143672</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L17" t="n">
-        <v>438.6284212562741</v>
+        <v>438.6284212562733</v>
       </c>
       <c r="M17" t="n">
-        <v>679.704408073973</v>
+        <v>679.7044080739723</v>
       </c>
       <c r="N17" t="n">
-        <v>927.6802318418082</v>
+        <v>927.6802318418077</v>
       </c>
       <c r="O17" t="n">
         <v>1153.168850648442</v>
@@ -5554,10 +5554,10 @@
         <v>1206.503517439622</v>
       </c>
       <c r="W17" t="n">
-        <v>1206.503517439622</v>
+        <v>847.8919781135019</v>
       </c>
       <c r="X17" t="n">
-        <v>1206.503517439622</v>
+        <v>847.8919781135019</v>
       </c>
       <c r="Y17" t="n">
         <v>847.8919781135019</v>
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>572.1566552959148</v>
+        <v>315.5027552436488</v>
       </c>
       <c r="C18" t="n">
-        <v>421.5024248560071</v>
+        <v>164.848524803741</v>
       </c>
       <c r="D18" t="n">
-        <v>291.4134574774874</v>
+        <v>164.848524803741</v>
       </c>
       <c r="E18" t="n">
-        <v>154.9669665883751</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F18" t="n">
-        <v>154.9669665883751</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G18" t="n">
-        <v>36.11748881216884</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H18" t="n">
-        <v>36.11748881216884</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I18" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J18" t="n">
-        <v>58.8570459887346</v>
+        <v>58.85704598873463</v>
       </c>
       <c r="K18" t="n">
         <v>161.7101484975363</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1184894326825</v>
+        <v>330.1184894326826</v>
       </c>
       <c r="M18" t="n">
-        <v>539.225044307698</v>
+        <v>539.2250443076982</v>
       </c>
       <c r="N18" t="n">
-        <v>763.2316466695177</v>
+        <v>763.2316466695179</v>
       </c>
       <c r="O18" t="n">
-        <v>953.7110577094156</v>
+        <v>953.7110577094159</v>
       </c>
       <c r="P18" t="n">
         <v>1094.021084972318</v>
@@ -5621,25 +5621,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S18" t="n">
-        <v>1307.652556102448</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T18" t="n">
-        <v>1135.547264475141</v>
+        <v>1247.996404104129</v>
       </c>
       <c r="U18" t="n">
-        <v>925.5637487953572</v>
+        <v>1038.012888424345</v>
       </c>
       <c r="V18" t="n">
-        <v>925.5637487953572</v>
+        <v>815.4728867954125</v>
       </c>
       <c r="W18" t="n">
-        <v>751.4708722204075</v>
+        <v>646.6133066091029</v>
       </c>
       <c r="X18" t="n">
-        <v>751.4708722204075</v>
+        <v>646.6133066091029</v>
       </c>
       <c r="Y18" t="n">
-        <v>572.1566552959148</v>
+        <v>467.2990896846101</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198.6071518486395</v>
+        <v>508.6004271742788</v>
       </c>
       <c r="C19" t="n">
-        <v>28.40203391462871</v>
+        <v>508.6004271742788</v>
       </c>
       <c r="D19" t="n">
-        <v>28.40203391462871</v>
+        <v>352.9673140767935</v>
       </c>
       <c r="E19" t="n">
-        <v>28.40203391462871</v>
+        <v>352.9673140767935</v>
       </c>
       <c r="F19" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="G19" t="n">
         <v>28.40203391462871</v>
@@ -5673,52 +5673,52 @@
         <v>28.40203391462871</v>
       </c>
       <c r="J19" t="n">
-        <v>28.40203391462871</v>
+        <v>68.94056019848828</v>
       </c>
       <c r="K19" t="n">
-        <v>225.7817318720665</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L19" t="n">
-        <v>364.2063841221209</v>
+        <v>407.6083061669429</v>
       </c>
       <c r="M19" t="n">
-        <v>706.3928386748898</v>
+        <v>749.7947607197118</v>
       </c>
       <c r="N19" t="n">
-        <v>1041.770517206404</v>
+        <v>1085.172439251226</v>
       </c>
       <c r="O19" t="n">
-        <v>1093.244026157469</v>
+        <v>1388.44749773776</v>
       </c>
       <c r="P19" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q19" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R19" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S19" t="n">
-        <v>1156.693209909607</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T19" t="n">
-        <v>925.3097308682576</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U19" t="n">
-        <v>639.9262868479085</v>
+        <v>1134.718251711087</v>
       </c>
       <c r="V19" t="n">
-        <v>421.7192130319961</v>
+        <v>868.7389065319109</v>
       </c>
       <c r="W19" t="n">
-        <v>421.7192130319961</v>
+        <v>742.6807493912956</v>
       </c>
       <c r="X19" t="n">
-        <v>421.7192130319961</v>
+        <v>508.6004271742788</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.6071518486395</v>
+        <v>508.6004271742788</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>387.0135732407489</v>
       </c>
       <c r="D20" t="n">
-        <v>387.0135732407489</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E20" t="n">
         <v>28.40203391462871</v>
@@ -5752,19 +5752,19 @@
         <v>28.40203391462871</v>
       </c>
       <c r="J20" t="n">
-        <v>100.0727921248351</v>
+        <v>100.0727921248346</v>
       </c>
       <c r="K20" t="n">
-        <v>240.4687168143666</v>
+        <v>240.4687168143662</v>
       </c>
       <c r="L20" t="n">
-        <v>438.6284212562736</v>
+        <v>438.6284212562732</v>
       </c>
       <c r="M20" t="n">
-        <v>679.7044080739724</v>
+        <v>679.7044080739721</v>
       </c>
       <c r="N20" t="n">
-        <v>927.6802318418077</v>
+        <v>927.6802318418073</v>
       </c>
       <c r="O20" t="n">
         <v>1153.168850648442</v>
@@ -5779,13 +5779,13 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S20" t="n">
-        <v>1359.808411970806</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T20" t="n">
-        <v>1359.808411970806</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U20" t="n">
-        <v>1104.236651892989</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V20" t="n">
         <v>1104.236651892989</v>
@@ -5794,7 +5794,7 @@
         <v>1104.236651892989</v>
       </c>
       <c r="X20" t="n">
-        <v>1104.236651892989</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="Y20" t="n">
         <v>745.6251125668691</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>309.1452317330562</v>
+        <v>104.2852067252301</v>
       </c>
       <c r="C21" t="n">
-        <v>158.4910012931484</v>
+        <v>104.2852067252301</v>
       </c>
       <c r="D21" t="n">
-        <v>28.40203391462871</v>
+        <v>104.2852067252301</v>
       </c>
       <c r="E21" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="F21" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="G21" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H21" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I21" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J21" t="n">
-        <v>58.8570459887346</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7101484975363</v>
+        <v>356.4451434772636</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1184894326825</v>
+        <v>594.8530404122364</v>
       </c>
       <c r="M21" t="n">
-        <v>539.225044307698</v>
+        <v>803.9595952872519</v>
       </c>
       <c r="N21" t="n">
-        <v>763.2316466695177</v>
+        <v>1027.966197649072</v>
       </c>
       <c r="O21" t="n">
-        <v>953.7110577094156</v>
+        <v>1218.44560868897</v>
       </c>
       <c r="P21" t="n">
-        <v>1094.021084972318</v>
+        <v>1358.755635951872</v>
       </c>
       <c r="Q21" t="n">
         <v>1420.101695731436</v>
@@ -5870,13 +5870,13 @@
         <v>703.0237471664243</v>
       </c>
       <c r="W21" t="n">
-        <v>703.0237471664243</v>
+        <v>472.9065012997112</v>
       </c>
       <c r="X21" t="n">
-        <v>640.2557830985103</v>
+        <v>283.5994236497228</v>
       </c>
       <c r="Y21" t="n">
-        <v>460.9415661740175</v>
+        <v>104.2852067252301</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.6071518486395</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="C22" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="D22" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="E22" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="F22" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="G22" t="n">
         <v>28.40203391462871</v>
@@ -5910,19 +5910,19 @@
         <v>28.40203391462871</v>
       </c>
       <c r="J22" t="n">
-        <v>28.40203391462871</v>
+        <v>68.94056019848827</v>
       </c>
       <c r="K22" t="n">
-        <v>60.92665912938514</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L22" t="n">
-        <v>364.2063841221209</v>
+        <v>578.3052781614904</v>
       </c>
       <c r="M22" t="n">
-        <v>706.3928386748898</v>
+        <v>644.8014124057114</v>
       </c>
       <c r="N22" t="n">
-        <v>1041.770517206404</v>
+        <v>980.1790909372259</v>
       </c>
       <c r="O22" t="n">
         <v>1093.244026157469</v>
@@ -5934,28 +5934,28 @@
         <v>1420.101695731436</v>
       </c>
       <c r="R22" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S22" t="n">
-        <v>1156.693209909607</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T22" t="n">
-        <v>1001.401320154828</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U22" t="n">
-        <v>716.0178761344787</v>
+        <v>1134.718251711087</v>
       </c>
       <c r="V22" t="n">
-        <v>716.0178761344787</v>
+        <v>868.7389065319109</v>
       </c>
       <c r="W22" t="n">
-        <v>432.6874740656564</v>
+        <v>585.4085044630885</v>
       </c>
       <c r="X22" t="n">
-        <v>198.6071518486395</v>
+        <v>585.4085044630885</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.6071518486395</v>
+        <v>362.2964432797319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>604.4178195290599</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="C23" t="n">
-        <v>604.4178195290599</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="D23" t="n">
-        <v>604.4178195290599</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E23" t="n">
-        <v>245.8062802029397</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F23" t="n">
-        <v>245.8062802029397</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G23" t="n">
-        <v>245.8062802029397</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H23" t="n">
         <v>28.40203391462871</v>
@@ -5989,10 +5989,10 @@
         <v>28.40203391462871</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0727921248346</v>
+        <v>100.0727921248351</v>
       </c>
       <c r="K23" t="n">
-        <v>240.4687168143667</v>
+        <v>240.4687168143666</v>
       </c>
       <c r="L23" t="n">
         <v>438.6284212562736</v>
@@ -6016,25 +6016,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S23" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T23" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U23" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V23" t="n">
-        <v>963.02935885518</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="W23" t="n">
-        <v>604.4178195290599</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="X23" t="n">
-        <v>604.4178195290599</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="Y23" t="n">
-        <v>604.4178195290599</v>
+        <v>1061.490156405315</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>413.7869699584669</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="C24" t="n">
-        <v>413.7869699584669</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="D24" t="n">
-        <v>283.6980025799472</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="E24" t="n">
-        <v>147.251511690835</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="F24" t="n">
-        <v>147.251511690835</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="G24" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H24" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I24" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J24" t="n">
-        <v>58.8570459887346</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K24" t="n">
-        <v>161.7101484975363</v>
+        <v>356.4451434772636</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1184894326825</v>
+        <v>524.8534844124099</v>
       </c>
       <c r="M24" t="n">
-        <v>539.225044307698</v>
+        <v>733.9600392874254</v>
       </c>
       <c r="N24" t="n">
-        <v>763.2316466695177</v>
+        <v>957.966641649245</v>
       </c>
       <c r="O24" t="n">
-        <v>1114.706816363048</v>
+        <v>1148.446052689143</v>
       </c>
       <c r="P24" t="n">
-        <v>1255.01684362595</v>
+        <v>1288.756079952045</v>
       </c>
       <c r="Q24" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R24" t="n">
         <v>1420.101695731436</v>
@@ -6098,22 +6098,22 @@
         <v>1307.652556102448</v>
       </c>
       <c r="T24" t="n">
-        <v>1307.652556102448</v>
+        <v>1135.547264475141</v>
       </c>
       <c r="U24" t="n">
-        <v>1307.652556102448</v>
+        <v>925.5637487953572</v>
       </c>
       <c r="V24" t="n">
-        <v>1085.112554473515</v>
+        <v>703.0237471664243</v>
       </c>
       <c r="W24" t="n">
-        <v>854.9953086068015</v>
+        <v>472.9065012997112</v>
       </c>
       <c r="X24" t="n">
-        <v>744.897521323921</v>
+        <v>283.5994236497228</v>
       </c>
       <c r="Y24" t="n">
-        <v>565.5833043994282</v>
+        <v>104.2852067252301</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.40203391462871</v>
+        <v>603.2765073481344</v>
       </c>
       <c r="C25" t="n">
-        <v>28.40203391462871</v>
+        <v>433.0713894141236</v>
       </c>
       <c r="D25" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="E25" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="F25" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="G25" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="H25" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="I25" t="n">
         <v>28.40203391462871</v>
@@ -6150,49 +6150,49 @@
         <v>68.94056019848827</v>
       </c>
       <c r="K25" t="n">
-        <v>101.4651854132447</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L25" t="n">
-        <v>364.2063841221209</v>
+        <v>327.3793491007137</v>
       </c>
       <c r="M25" t="n">
-        <v>706.3928386748898</v>
+        <v>669.5658036534826</v>
       </c>
       <c r="N25" t="n">
-        <v>1041.770517206404</v>
+        <v>1004.943482184997</v>
       </c>
       <c r="O25" t="n">
-        <v>1093.244026157469</v>
+        <v>1308.21854067153</v>
       </c>
       <c r="P25" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q25" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R25" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S25" t="n">
-        <v>1156.693209909607</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T25" t="n">
-        <v>925.3097308682576</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U25" t="n">
-        <v>639.9262868479085</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V25" t="n">
-        <v>639.9262868479085</v>
+        <v>1154.12235055226</v>
       </c>
       <c r="W25" t="n">
-        <v>356.5958847790861</v>
+        <v>870.7919484834374</v>
       </c>
       <c r="X25" t="n">
-        <v>251.5140950979853</v>
+        <v>636.7116262664205</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.40203391462871</v>
+        <v>636.7116262664205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>745.6251125668691</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="C26" t="n">
-        <v>387.0135732407489</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="D26" t="n">
-        <v>387.0135732407489</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="E26" t="n">
-        <v>387.0135732407489</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="F26" t="n">
-        <v>387.0135732407489</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="G26" t="n">
-        <v>28.40203391462871</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="H26" t="n">
-        <v>28.40203391462871</v>
+        <v>59.85567940827622</v>
       </c>
       <c r="I26" t="n">
         <v>28.40203391462871</v>
@@ -6238,13 +6238,13 @@
         <v>679.704408073972</v>
       </c>
       <c r="N26" t="n">
-        <v>927.6802318418077</v>
+        <v>927.6802318418072</v>
       </c>
       <c r="O26" t="n">
-        <v>1153.168850648442</v>
+        <v>1153.168850648441</v>
       </c>
       <c r="P26" t="n">
-        <v>1323.192519378011</v>
+        <v>1323.19251937801</v>
       </c>
       <c r="Q26" t="n">
         <v>1419.560928496658</v>
@@ -6256,22 +6256,22 @@
         <v>1420.101695731436</v>
       </c>
       <c r="T26" t="n">
-        <v>1206.503517439622</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U26" t="n">
-        <v>950.9317573618052</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V26" t="n">
-        <v>950.9317573618052</v>
+        <v>1077.994886434954</v>
       </c>
       <c r="W26" t="n">
-        <v>745.6251125668691</v>
+        <v>719.3833471088337</v>
       </c>
       <c r="X26" t="n">
-        <v>745.6251125668691</v>
+        <v>360.7718077827136</v>
       </c>
       <c r="Y26" t="n">
-        <v>745.6251125668691</v>
+        <v>360.7718077827136</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.8030892087615</v>
+        <v>186.7717192520767</v>
       </c>
       <c r="C27" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="D27" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="E27" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="F27" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="G27" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H27" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I27" t="n">
         <v>28.40203391462871</v>
@@ -6314,16 +6314,16 @@
         <v>330.1184894326825</v>
       </c>
       <c r="M27" t="n">
-        <v>539.225044307698</v>
+        <v>681.5936591262129</v>
       </c>
       <c r="N27" t="n">
-        <v>763.2316466695177</v>
+        <v>905.6002614880325</v>
       </c>
       <c r="O27" t="n">
-        <v>953.7110577094156</v>
+        <v>1096.079672527931</v>
       </c>
       <c r="P27" t="n">
-        <v>1094.021084972318</v>
+        <v>1236.389699790833</v>
       </c>
       <c r="Q27" t="n">
         <v>1420.101695731436</v>
@@ -6332,25 +6332,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S27" t="n">
-        <v>1307.652556102448</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T27" t="n">
-        <v>1135.547264475141</v>
+        <v>1247.996404104129</v>
       </c>
       <c r="U27" t="n">
-        <v>925.5637487953572</v>
+        <v>1159.846595763165</v>
       </c>
       <c r="V27" t="n">
-        <v>703.0237471664243</v>
+        <v>937.3065941342322</v>
       </c>
       <c r="W27" t="n">
-        <v>472.9065012997112</v>
+        <v>707.1893482675191</v>
       </c>
       <c r="X27" t="n">
-        <v>283.5994236497228</v>
+        <v>517.8822706175308</v>
       </c>
       <c r="Y27" t="n">
-        <v>283.5994236497228</v>
+        <v>338.568053693038</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.40203391462871</v>
+        <v>980.8212270343427</v>
       </c>
       <c r="C28" t="n">
-        <v>28.40203391462871</v>
+        <v>810.6161091003319</v>
       </c>
       <c r="D28" t="n">
-        <v>28.40203391462871</v>
+        <v>654.9829960028467</v>
       </c>
       <c r="E28" t="n">
-        <v>28.40203391462871</v>
+        <v>499.4241838620491</v>
       </c>
       <c r="F28" t="n">
-        <v>28.40203391462871</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="G28" t="n">
-        <v>28.40203391462871</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="H28" t="n">
         <v>28.40203391462871</v>
@@ -6387,49 +6387,49 @@
         <v>28.40203391462871</v>
       </c>
       <c r="K28" t="n">
-        <v>60.92665912938514</v>
+        <v>225.7817318720665</v>
       </c>
       <c r="L28" t="n">
-        <v>121.9857500741727</v>
+        <v>537.7667518776308</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1722046269416</v>
+        <v>879.9532064303996</v>
       </c>
       <c r="N28" t="n">
-        <v>799.5498831584561</v>
+        <v>949.9756030673273</v>
       </c>
       <c r="O28" t="n">
-        <v>1093.244026157469</v>
+        <v>1179.943361355555</v>
       </c>
       <c r="P28" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q28" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R28" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S28" t="n">
-        <v>1156.693209909607</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T28" t="n">
-        <v>925.3097308682576</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="U28" t="n">
-        <v>925.3097308682576</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="V28" t="n">
-        <v>925.3097308682576</v>
+        <v>980.8212270343427</v>
       </c>
       <c r="W28" t="n">
-        <v>641.9793287994353</v>
+        <v>980.8212270343427</v>
       </c>
       <c r="X28" t="n">
-        <v>407.8990065824183</v>
+        <v>980.8212270343427</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.7869453990617</v>
+        <v>980.8212270343427</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.20810191112571</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="C29" t="n">
-        <v>32.20810191112571</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="D29" t="n">
-        <v>28.4020339146287</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="E29" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F29" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G29" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H29" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I29" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J29" t="n">
-        <v>100.0727921248346</v>
+        <v>100.072792124835</v>
       </c>
       <c r="K29" t="n">
-        <v>240.4687168143662</v>
+        <v>240.4687168143667</v>
       </c>
       <c r="L29" t="n">
-        <v>438.6284212562728</v>
+        <v>438.6284212562736</v>
       </c>
       <c r="M29" t="n">
-        <v>679.7044080739718</v>
+        <v>679.7044080739724</v>
       </c>
       <c r="N29" t="n">
-        <v>927.680231841807</v>
+        <v>927.6802318418077</v>
       </c>
       <c r="O29" t="n">
-        <v>1153.168850648441</v>
+        <v>1153.168850648442</v>
       </c>
       <c r="P29" t="n">
-        <v>1323.19251937801</v>
+        <v>1323.192519378011</v>
       </c>
       <c r="Q29" t="n">
-        <v>1419.560928496657</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R29" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S29" t="n">
-        <v>1305.136168151661</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T29" t="n">
-        <v>1091.537989859847</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="U29" t="n">
-        <v>1091.537989859847</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="V29" t="n">
-        <v>749.4311805633655</v>
+        <v>749.4311805633664</v>
       </c>
       <c r="W29" t="n">
-        <v>390.8196412372456</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="X29" t="n">
-        <v>32.20810191112571</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.20810191112571</v>
+        <v>387.0135732407489</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.4910012931484</v>
+        <v>568.1538549060174</v>
       </c>
       <c r="C30" t="n">
-        <v>158.4910012931484</v>
+        <v>568.1538549060174</v>
       </c>
       <c r="D30" t="n">
-        <v>28.4020339146287</v>
+        <v>438.0648875274977</v>
       </c>
       <c r="E30" t="n">
-        <v>28.4020339146287</v>
+        <v>301.6183966383854</v>
       </c>
       <c r="F30" t="n">
-        <v>28.4020339146287</v>
+        <v>231.5750452046675</v>
       </c>
       <c r="G30" t="n">
-        <v>28.4020339146287</v>
+        <v>112.7255674284613</v>
       </c>
       <c r="H30" t="n">
-        <v>28.4020339146287</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I30" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J30" t="n">
-        <v>58.85704598873458</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K30" t="n">
-        <v>161.7101484975362</v>
+        <v>426.4446994770901</v>
       </c>
       <c r="L30" t="n">
-        <v>513.1853181910664</v>
+        <v>594.8530404122364</v>
       </c>
       <c r="M30" t="n">
-        <v>722.291873066082</v>
+        <v>803.9595952872519</v>
       </c>
       <c r="N30" t="n">
-        <v>946.2984754279016</v>
+        <v>1027.966197649072</v>
       </c>
       <c r="O30" t="n">
-        <v>1136.7778864678</v>
+        <v>1218.44560868897</v>
       </c>
       <c r="P30" t="n">
-        <v>1277.087913730702</v>
+        <v>1358.755635951872</v>
       </c>
       <c r="Q30" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R30" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S30" t="n">
-        <v>1307.652556102447</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T30" t="n">
-        <v>1135.54726447514</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U30" t="n">
-        <v>952.2516608797441</v>
+        <v>1210.118180051652</v>
       </c>
       <c r="V30" t="n">
-        <v>729.7116592508112</v>
+        <v>987.5781784227188</v>
       </c>
       <c r="W30" t="n">
-        <v>499.5944133840981</v>
+        <v>757.4609325560057</v>
       </c>
       <c r="X30" t="n">
-        <v>310.2873357341097</v>
+        <v>568.1538549060174</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.2873357341097</v>
+        <v>568.1538549060174</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.4020339146287</v>
+        <v>351.3281822460716</v>
       </c>
       <c r="C31" t="n">
-        <v>28.4020339146287</v>
+        <v>351.3281822460716</v>
       </c>
       <c r="D31" t="n">
-        <v>28.4020339146287</v>
+        <v>351.3281822460716</v>
       </c>
       <c r="E31" t="n">
-        <v>28.4020339146287</v>
+        <v>195.7693701052741</v>
       </c>
       <c r="F31" t="n">
-        <v>28.4020339146287</v>
+        <v>38.44343531824705</v>
       </c>
       <c r="G31" t="n">
-        <v>28.4020339146287</v>
+        <v>38.44343531824705</v>
       </c>
       <c r="H31" t="n">
-        <v>28.4020339146287</v>
+        <v>38.44343531824705</v>
       </c>
       <c r="I31" t="n">
-        <v>28.4020339146287</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J31" t="n">
-        <v>28.4020339146287</v>
+        <v>43.58550967487925</v>
       </c>
       <c r="K31" t="n">
-        <v>60.92665912938512</v>
+        <v>76.11013488963567</v>
       </c>
       <c r="L31" t="n">
-        <v>372.9116791349494</v>
+        <v>388.0951548951999</v>
       </c>
       <c r="M31" t="n">
-        <v>454.59128913942</v>
+        <v>454.591289139421</v>
       </c>
       <c r="N31" t="n">
-        <v>789.9689676709345</v>
+        <v>789.9689676709354</v>
       </c>
       <c r="O31" t="n">
-        <v>1093.244026157468</v>
+        <v>1093.244026157469</v>
       </c>
       <c r="P31" t="n">
-        <v>1333.402360533349</v>
+        <v>1333.40236053335</v>
       </c>
       <c r="Q31" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R31" t="n">
-        <v>1341.82569151593</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S31" t="n">
-        <v>1156.693209909606</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.175547399993</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U31" t="n">
-        <v>811.7921033796437</v>
+        <v>1134.718251711087</v>
       </c>
       <c r="V31" t="n">
-        <v>545.8127582004679</v>
+        <v>868.7389065319109</v>
       </c>
       <c r="W31" t="n">
-        <v>262.4823561316456</v>
+        <v>585.4085044630885</v>
       </c>
       <c r="X31" t="n">
-        <v>28.4020339146287</v>
+        <v>351.3281822460716</v>
       </c>
       <c r="Y31" t="n">
-        <v>28.4020339146287</v>
+        <v>351.3281822460716</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.3149112076076</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="C32" t="n">
-        <v>374.3149112076076</v>
+        <v>702.8786170791955</v>
       </c>
       <c r="D32" t="n">
-        <v>28.40203391462871</v>
+        <v>702.8786170791955</v>
       </c>
       <c r="E32" t="n">
-        <v>28.40203391462871</v>
+        <v>702.8786170791955</v>
       </c>
       <c r="F32" t="n">
-        <v>28.40203391462871</v>
+        <v>344.2670777530754</v>
       </c>
       <c r="G32" t="n">
         <v>28.40203391462871</v>
@@ -6700,19 +6700,19 @@
         <v>28.40203391462871</v>
       </c>
       <c r="J32" t="n">
-        <v>100.0727921248354</v>
+        <v>100.0727921248351</v>
       </c>
       <c r="K32" t="n">
-        <v>240.4687168143672</v>
+        <v>240.4687168143669</v>
       </c>
       <c r="L32" t="n">
-        <v>438.6284212562741</v>
+        <v>438.6284212562737</v>
       </c>
       <c r="M32" t="n">
-        <v>679.704408073973</v>
+        <v>679.7044080739726</v>
       </c>
       <c r="N32" t="n">
-        <v>927.6802318418082</v>
+        <v>927.6802318418078</v>
       </c>
       <c r="O32" t="n">
         <v>1153.168850648442</v>
@@ -6724,28 +6724,28 @@
         <v>1419.560928496658</v>
       </c>
       <c r="R32" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S32" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T32" t="n">
-        <v>1091.537989859848</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="U32" t="n">
-        <v>1091.537989859848</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="V32" t="n">
-        <v>1091.537989859848</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="W32" t="n">
-        <v>732.9264505337278</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="X32" t="n">
-        <v>374.3149112076076</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="Y32" t="n">
-        <v>374.3149112076076</v>
+        <v>1061.490156405315</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>434.352233019855</v>
+        <v>216.734346354218</v>
       </c>
       <c r="C33" t="n">
-        <v>283.6980025799472</v>
+        <v>216.734346354218</v>
       </c>
       <c r="D33" t="n">
-        <v>283.6980025799472</v>
+        <v>216.734346354218</v>
       </c>
       <c r="E33" t="n">
-        <v>147.251511690835</v>
+        <v>216.734346354218</v>
       </c>
       <c r="F33" t="n">
-        <v>147.251511690835</v>
+        <v>216.734346354218</v>
       </c>
       <c r="G33" t="n">
-        <v>28.40203391462871</v>
+        <v>112.7255674284613</v>
       </c>
       <c r="H33" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I33" t="n">
         <v>28.40203391462871</v>
@@ -6794,37 +6794,37 @@
         <v>763.2316466695177</v>
       </c>
       <c r="O33" t="n">
-        <v>1114.706816363048</v>
+        <v>953.7110577094156</v>
       </c>
       <c r="P33" t="n">
-        <v>1308.544900753903</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q33" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="R33" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S33" t="n">
-        <v>1307.652556102448</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T33" t="n">
-        <v>1135.547264475141</v>
+        <v>1247.996404104129</v>
       </c>
       <c r="U33" t="n">
-        <v>925.5637487953572</v>
+        <v>1038.012888424345</v>
       </c>
       <c r="V33" t="n">
-        <v>925.5637487953572</v>
+        <v>815.4728867954123</v>
       </c>
       <c r="W33" t="n">
-        <v>925.5637487953572</v>
+        <v>585.3556409286991</v>
       </c>
       <c r="X33" t="n">
-        <v>736.256671145369</v>
+        <v>396.0485632787108</v>
       </c>
       <c r="Y33" t="n">
-        <v>586.1485674608164</v>
+        <v>216.734346354218</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="C34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="D34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="E34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="F34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="G34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="H34" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9129642383827</v>
       </c>
       <c r="I34" t="n">
         <v>28.40203391462871</v>
@@ -6861,49 +6861,49 @@
         <v>68.94056019848827</v>
       </c>
       <c r="K34" t="n">
-        <v>101.4651854132447</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L34" t="n">
-        <v>413.4502054188089</v>
+        <v>377.7601164812384</v>
       </c>
       <c r="M34" t="n">
-        <v>479.94633966303</v>
+        <v>719.9465710340073</v>
       </c>
       <c r="N34" t="n">
-        <v>789.9689676709354</v>
+        <v>789.9689676709349</v>
       </c>
       <c r="O34" t="n">
-        <v>1093.244026157469</v>
+        <v>1093.244026157468</v>
       </c>
       <c r="P34" t="n">
         <v>1333.40236053335</v>
       </c>
       <c r="Q34" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="R34" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S34" t="n">
-        <v>1156.693209909607</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T34" t="n">
-        <v>925.3097308682576</v>
+        <v>1188.718216690087</v>
       </c>
       <c r="U34" t="n">
-        <v>639.9262868479085</v>
+        <v>903.3347726697375</v>
       </c>
       <c r="V34" t="n">
-        <v>639.9262868479085</v>
+        <v>637.3554274905617</v>
       </c>
       <c r="W34" t="n">
-        <v>356.5958847790861</v>
+        <v>354.0250254217394</v>
       </c>
       <c r="X34" t="n">
-        <v>356.5958847790861</v>
+        <v>354.0250254217394</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.4838235957295</v>
+        <v>130.9129642383827</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>387.0135732407489</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="C35" t="n">
-        <v>387.0135732407489</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="D35" t="n">
-        <v>387.0135732407489</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="E35" t="n">
-        <v>28.40203391462871</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="F35" t="n">
-        <v>28.40203391462871</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="G35" t="n">
-        <v>28.40203391462871</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="H35" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="I35" t="n">
         <v>28.40203391462871</v>
@@ -6970,19 +6970,19 @@
         <v>1305.136168151662</v>
       </c>
       <c r="U35" t="n">
-        <v>1305.136168151662</v>
+        <v>1081.163300692888</v>
       </c>
       <c r="V35" t="n">
-        <v>963.02935885518</v>
+        <v>739.0564913964063</v>
       </c>
       <c r="W35" t="n">
-        <v>604.4178195290599</v>
+        <v>739.0564913964063</v>
       </c>
       <c r="X35" t="n">
-        <v>604.4178195290599</v>
+        <v>380.4449520702861</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.0135732407489</v>
+        <v>380.4449520702861</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.2852067252301</v>
+        <v>646.6316073553292</v>
       </c>
       <c r="C36" t="n">
-        <v>104.2852067252301</v>
+        <v>495.9773769154213</v>
       </c>
       <c r="D36" t="n">
-        <v>104.2852067252301</v>
+        <v>365.8884095369016</v>
       </c>
       <c r="E36" t="n">
-        <v>28.40203391462871</v>
+        <v>229.4419186477894</v>
       </c>
       <c r="F36" t="n">
-        <v>28.40203391462871</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="G36" t="n">
-        <v>28.40203391462871</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="H36" t="n">
         <v>28.40203391462871</v>
@@ -7016,52 +7016,52 @@
         <v>28.40203391462871</v>
       </c>
       <c r="J36" t="n">
-        <v>58.8570459887346</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7101484975363</v>
+        <v>356.4451434772636</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1184894326825</v>
+        <v>524.8534844124099</v>
       </c>
       <c r="M36" t="n">
-        <v>539.225044307698</v>
+        <v>733.9600392874254</v>
       </c>
       <c r="N36" t="n">
-        <v>763.2316466695177</v>
+        <v>957.966641649245</v>
       </c>
       <c r="O36" t="n">
-        <v>953.7110577094156</v>
+        <v>1148.446052689143</v>
       </c>
       <c r="P36" t="n">
-        <v>1094.021084972318</v>
+        <v>1288.756079952045</v>
       </c>
       <c r="Q36" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R36" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S36" t="n">
-        <v>1307.652556102448</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T36" t="n">
-        <v>1135.547264475141</v>
+        <v>1247.996404104129</v>
       </c>
       <c r="U36" t="n">
-        <v>925.5637487953572</v>
+        <v>1038.012888424345</v>
       </c>
       <c r="V36" t="n">
-        <v>703.0237471664243</v>
+        <v>1038.012888424345</v>
       </c>
       <c r="W36" t="n">
-        <v>472.9065012997112</v>
+        <v>807.8956425576323</v>
       </c>
       <c r="X36" t="n">
-        <v>283.5994236497228</v>
+        <v>807.8956425576323</v>
       </c>
       <c r="Y36" t="n">
-        <v>104.2852067252301</v>
+        <v>798.4279417962905</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>354.165963989437</v>
+        <v>503.5260676875693</v>
       </c>
       <c r="C37" t="n">
-        <v>183.9608460554262</v>
+        <v>433.0713894141236</v>
       </c>
       <c r="D37" t="n">
-        <v>183.9608460554262</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="E37" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="F37" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="G37" t="n">
-        <v>28.40203391462871</v>
+        <v>277.4382763166384</v>
       </c>
       <c r="H37" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="I37" t="n">
         <v>28.40203391462871</v>
@@ -7101,46 +7101,46 @@
         <v>266.3202581559261</v>
       </c>
       <c r="L37" t="n">
-        <v>578.3052781614904</v>
+        <v>450.9057193202069</v>
       </c>
       <c r="M37" t="n">
-        <v>644.8014124057114</v>
+        <v>793.0921738729758</v>
       </c>
       <c r="N37" t="n">
-        <v>789.9689676709354</v>
+        <v>1128.46985240449</v>
       </c>
       <c r="O37" t="n">
-        <v>1093.244026157469</v>
+        <v>1179.943361355555</v>
       </c>
       <c r="P37" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q37" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R37" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S37" t="n">
-        <v>1156.693209909607</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T37" t="n">
-        <v>925.3097308682576</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="U37" t="n">
-        <v>639.9262868479085</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="V37" t="n">
-        <v>373.9469416687327</v>
+        <v>737.6063899045862</v>
       </c>
       <c r="W37" t="n">
-        <v>354.165963989437</v>
+        <v>737.6063899045862</v>
       </c>
       <c r="X37" t="n">
-        <v>354.165963989437</v>
+        <v>503.5260676875693</v>
       </c>
       <c r="Y37" t="n">
-        <v>354.165963989437</v>
+        <v>503.5260676875693</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>687.9297016151859</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="C38" t="n">
-        <v>687.9297016151859</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="D38" t="n">
-        <v>687.9297016151859</v>
+        <v>946.5246288255408</v>
       </c>
       <c r="E38" t="n">
-        <v>687.9297016151859</v>
+        <v>587.9130894994209</v>
       </c>
       <c r="F38" t="n">
-        <v>329.318162289066</v>
+        <v>229.3015501733011</v>
       </c>
       <c r="G38" t="n">
-        <v>329.318162289066</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="H38" t="n">
-        <v>28.4020339146287</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="I38" t="n">
         <v>28.4020339146287</v>
@@ -7180,13 +7180,13 @@
         <v>240.4687168143662</v>
       </c>
       <c r="L38" t="n">
-        <v>438.6284212562728</v>
+        <v>438.6284212562731</v>
       </c>
       <c r="M38" t="n">
-        <v>679.7044080739718</v>
+        <v>679.704408073972</v>
       </c>
       <c r="N38" t="n">
-        <v>927.680231841807</v>
+        <v>927.6802318418072</v>
       </c>
       <c r="O38" t="n">
         <v>1153.168850648441</v>
@@ -7195,7 +7195,7 @@
         <v>1323.19251937801</v>
       </c>
       <c r="Q38" t="n">
-        <v>1419.560928496657</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R38" t="n">
         <v>1420.101695731435</v>
@@ -7204,22 +7204,22 @@
         <v>1305.136168151661</v>
       </c>
       <c r="T38" t="n">
-        <v>1091.537989859847</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="U38" t="n">
-        <v>1091.537989859847</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="V38" t="n">
-        <v>1091.537989859847</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="W38" t="n">
-        <v>1091.537989859847</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="X38" t="n">
-        <v>1046.541240941306</v>
+        <v>1305.136168151661</v>
       </c>
       <c r="Y38" t="n">
-        <v>687.9297016151859</v>
+        <v>1305.136168151661</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>242.8145348069809</v>
+        <v>426.3503811905507</v>
       </c>
       <c r="C39" t="n">
-        <v>242.8145348069809</v>
+        <v>275.6961507506429</v>
       </c>
       <c r="D39" t="n">
-        <v>112.7255674284612</v>
+        <v>172.5639797012811</v>
       </c>
       <c r="E39" t="n">
-        <v>112.7255674284612</v>
+        <v>36.11748881216882</v>
       </c>
       <c r="F39" t="n">
-        <v>112.7255674284612</v>
+        <v>36.11748881216882</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7255674284612</v>
+        <v>36.11748881216882</v>
       </c>
       <c r="H39" t="n">
         <v>36.11748881216882</v>
@@ -7253,19 +7253,19 @@
         <v>28.4020339146287</v>
       </c>
       <c r="J39" t="n">
-        <v>58.85704598873458</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K39" t="n">
-        <v>161.7101484975362</v>
+        <v>356.4451434772636</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1184894326825</v>
+        <v>524.8534844124099</v>
       </c>
       <c r="M39" t="n">
-        <v>592.7531014356501</v>
+        <v>733.9600392874254</v>
       </c>
       <c r="N39" t="n">
-        <v>816.7597037974698</v>
+        <v>977.7554624511019</v>
       </c>
       <c r="O39" t="n">
         <v>1168.234873491</v>
@@ -7280,25 +7280,25 @@
         <v>1420.101695731435</v>
       </c>
       <c r="S39" t="n">
-        <v>1307.652556102447</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T39" t="n">
-        <v>1195.75568113114</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="U39" t="n">
-        <v>985.7721654513562</v>
+        <v>1210.118180051651</v>
       </c>
       <c r="V39" t="n">
-        <v>763.2321638224232</v>
+        <v>987.5781784227179</v>
       </c>
       <c r="W39" t="n">
-        <v>763.2321638224232</v>
+        <v>757.4609325560048</v>
       </c>
       <c r="X39" t="n">
-        <v>573.9250861724349</v>
+        <v>757.4609325560048</v>
       </c>
       <c r="Y39" t="n">
-        <v>394.6108692479422</v>
+        <v>578.1467156315121</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>365.8464972237772</v>
+        <v>678.8055451082896</v>
       </c>
       <c r="C40" t="n">
-        <v>195.6413792897665</v>
+        <v>508.6004271742788</v>
       </c>
       <c r="D40" t="n">
-        <v>195.6413792897665</v>
+        <v>352.9673140767935</v>
       </c>
       <c r="E40" t="n">
-        <v>195.6413792897665</v>
+        <v>352.9673140767935</v>
       </c>
       <c r="F40" t="n">
         <v>195.6413792897665</v>
@@ -7332,25 +7332,25 @@
         <v>28.4020339146287</v>
       </c>
       <c r="J40" t="n">
-        <v>68.94056019848824</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="K40" t="n">
-        <v>266.320258155926</v>
+        <v>225.7817318720665</v>
       </c>
       <c r="L40" t="n">
-        <v>327.3793491007136</v>
+        <v>537.7667518776308</v>
       </c>
       <c r="M40" t="n">
-        <v>669.5658036534826</v>
+        <v>879.9532064303996</v>
       </c>
       <c r="N40" t="n">
-        <v>789.9689676709345</v>
+        <v>1215.330884961914</v>
       </c>
       <c r="O40" t="n">
-        <v>1093.244026157468</v>
+        <v>1388.447497737759</v>
       </c>
       <c r="P40" t="n">
-        <v>1333.402360533349</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="Q40" t="n">
         <v>1420.101695731435</v>
@@ -7359,25 +7359,25 @@
         <v>1420.101695731435</v>
       </c>
       <c r="S40" t="n">
-        <v>1420.101695731435</v>
+        <v>1318.509104024296</v>
       </c>
       <c r="T40" t="n">
-        <v>1274.226244494628</v>
+        <v>1087.125624982948</v>
       </c>
       <c r="U40" t="n">
-        <v>1274.226244494628</v>
+        <v>1087.125624982948</v>
       </c>
       <c r="V40" t="n">
-        <v>1008.246899315452</v>
+        <v>1087.125624982948</v>
       </c>
       <c r="W40" t="n">
-        <v>1008.246899315452</v>
+        <v>1087.125624982948</v>
       </c>
       <c r="X40" t="n">
-        <v>774.1665770984353</v>
+        <v>1087.125624982948</v>
       </c>
       <c r="Y40" t="n">
-        <v>551.0545159150786</v>
+        <v>864.0135637995909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>387.0135732407489</v>
+        <v>702.878617079195</v>
       </c>
       <c r="C41" t="n">
-        <v>387.0135732407489</v>
+        <v>387.0135732407487</v>
       </c>
       <c r="D41" t="n">
-        <v>387.0135732407489</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="E41" t="n">
-        <v>387.0135732407489</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="F41" t="n">
-        <v>387.0135732407489</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="G41" t="n">
-        <v>28.40203391462871</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="H41" t="n">
-        <v>28.40203391462871</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="I41" t="n">
-        <v>28.40203391462871</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0727921248351</v>
+        <v>100.0727921248346</v>
       </c>
       <c r="K41" t="n">
-        <v>240.4687168143666</v>
+        <v>240.4687168143662</v>
       </c>
       <c r="L41" t="n">
-        <v>438.6284212562736</v>
+        <v>438.6284212562731</v>
       </c>
       <c r="M41" t="n">
-        <v>679.7044080739724</v>
+        <v>679.704408073972</v>
       </c>
       <c r="N41" t="n">
-        <v>927.6802318418077</v>
+        <v>927.6802318418072</v>
       </c>
       <c r="O41" t="n">
-        <v>1153.168850648442</v>
+        <v>1153.168850648441</v>
       </c>
       <c r="P41" t="n">
-        <v>1323.192519378011</v>
+        <v>1323.19251937801</v>
       </c>
       <c r="Q41" t="n">
         <v>1419.560928496658</v>
       </c>
       <c r="R41" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S41" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T41" t="n">
-        <v>1206.503517439622</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="U41" t="n">
-        <v>1206.503517439622</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="V41" t="n">
-        <v>864.3967081431405</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="W41" t="n">
-        <v>505.7851688170203</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="X41" t="n">
-        <v>387.0135732407489</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.0135732407489</v>
+        <v>702.878617079195</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>427.9947095092624</v>
+        <v>356.0068513215357</v>
       </c>
       <c r="C42" t="n">
-        <v>277.3404790693546</v>
+        <v>356.0068513215357</v>
       </c>
       <c r="D42" t="n">
-        <v>147.251511690835</v>
+        <v>356.0068513215357</v>
       </c>
       <c r="E42" t="n">
-        <v>147.251511690835</v>
+        <v>356.0068513215357</v>
       </c>
       <c r="F42" t="n">
-        <v>147.251511690835</v>
+        <v>231.5750452046675</v>
       </c>
       <c r="G42" t="n">
-        <v>28.40203391462871</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="H42" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216883</v>
       </c>
       <c r="I42" t="n">
-        <v>28.40203391462871</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="J42" t="n">
-        <v>58.8570459887346</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K42" t="n">
-        <v>161.7101484975363</v>
+        <v>426.4446994770894</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1184894326825</v>
+        <v>594.8530404122357</v>
       </c>
       <c r="M42" t="n">
-        <v>539.225044307698</v>
+        <v>803.9595952872512</v>
       </c>
       <c r="N42" t="n">
-        <v>816.8010552184434</v>
+        <v>1027.966197649071</v>
       </c>
       <c r="O42" t="n">
-        <v>1007.280466258341</v>
+        <v>1218.445608688969</v>
       </c>
       <c r="P42" t="n">
-        <v>1358.755635951872</v>
+        <v>1358.755635951871</v>
       </c>
       <c r="Q42" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="R42" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S42" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T42" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="U42" t="n">
-        <v>1211.762508370363</v>
+        <v>1210.118180051651</v>
       </c>
       <c r="V42" t="n">
-        <v>989.2225067414297</v>
+        <v>987.5781784227181</v>
       </c>
       <c r="W42" t="n">
-        <v>759.1052608747166</v>
+        <v>757.460932556005</v>
       </c>
       <c r="X42" t="n">
-        <v>759.1052608747166</v>
+        <v>568.1538549060167</v>
       </c>
       <c r="Y42" t="n">
-        <v>579.7910439502238</v>
+        <v>388.8396379815239</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>770.5158527232722</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="C43" t="n">
-        <v>600.3107347892615</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="D43" t="n">
-        <v>444.6776216917762</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="E43" t="n">
-        <v>444.6776216917762</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="F43" t="n">
-        <v>444.6776216917762</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="G43" t="n">
-        <v>277.4382763166384</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9814065313828</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="I43" t="n">
-        <v>28.40203391462871</v>
+        <v>28.4020339146287</v>
       </c>
       <c r="J43" t="n">
-        <v>28.40203391462871</v>
+        <v>68.94056019848826</v>
       </c>
       <c r="K43" t="n">
-        <v>60.92665912938514</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L43" t="n">
-        <v>121.9857500741727</v>
+        <v>364.20638412212</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1722046269416</v>
+        <v>706.3928386748889</v>
       </c>
       <c r="N43" t="n">
-        <v>799.5498831584561</v>
+        <v>1041.770517206403</v>
       </c>
       <c r="O43" t="n">
-        <v>1102.824941644989</v>
+        <v>1093.244026157468</v>
       </c>
       <c r="P43" t="n">
-        <v>1342.983276020871</v>
+        <v>1333.402360533349</v>
       </c>
       <c r="Q43" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="R43" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S43" t="n">
-        <v>1235.979653981638</v>
+        <v>1250.037516365122</v>
       </c>
       <c r="T43" t="n">
-        <v>1004.596174940289</v>
+        <v>1018.654037323773</v>
       </c>
       <c r="U43" t="n">
-        <v>1004.596174940289</v>
+        <v>733.2705933034243</v>
       </c>
       <c r="V43" t="n">
-        <v>1004.596174940289</v>
+        <v>467.2912481242486</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.596174940289</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="X43" t="n">
-        <v>770.5158527232722</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="Y43" t="n">
-        <v>770.5158527232722</v>
+        <v>183.9608460554262</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.301550173301</v>
+        <v>592.3202180356845</v>
       </c>
       <c r="C44" t="n">
-        <v>28.4020339146287</v>
+        <v>592.3202180356845</v>
       </c>
       <c r="D44" t="n">
-        <v>28.4020339146287</v>
+        <v>329.318162289066</v>
       </c>
       <c r="E44" t="n">
-        <v>28.4020339146287</v>
+        <v>329.318162289066</v>
       </c>
       <c r="F44" t="n">
-        <v>28.4020339146287</v>
+        <v>329.318162289066</v>
       </c>
       <c r="G44" t="n">
-        <v>28.4020339146287</v>
+        <v>329.318162289066</v>
       </c>
       <c r="H44" t="n">
         <v>28.4020339146287</v>
@@ -7675,25 +7675,25 @@
         <v>1420.101695731435</v>
       </c>
       <c r="S44" t="n">
-        <v>1305.136168151661</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T44" t="n">
-        <v>1305.136168151661</v>
+        <v>1206.503517439621</v>
       </c>
       <c r="U44" t="n">
-        <v>1305.136168151661</v>
+        <v>950.9317573618046</v>
       </c>
       <c r="V44" t="n">
-        <v>1305.136168151661</v>
+        <v>950.9317573618046</v>
       </c>
       <c r="W44" t="n">
-        <v>946.524628825541</v>
+        <v>950.9317573618046</v>
       </c>
       <c r="X44" t="n">
-        <v>946.524628825541</v>
+        <v>950.9317573618046</v>
       </c>
       <c r="Y44" t="n">
-        <v>587.9130894994209</v>
+        <v>592.3202180356845</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>544.3859682717266</v>
+        <v>334.5776795913584</v>
       </c>
       <c r="C45" t="n">
-        <v>393.7317378318188</v>
+        <v>183.9234491514506</v>
       </c>
       <c r="D45" t="n">
-        <v>393.7317378318188</v>
+        <v>183.9234491514506</v>
       </c>
       <c r="E45" t="n">
-        <v>257.2852469427065</v>
+        <v>47.47695826233831</v>
       </c>
       <c r="F45" t="n">
-        <v>132.8534408258383</v>
+        <v>36.11748881216883</v>
       </c>
       <c r="G45" t="n">
-        <v>112.7255674284612</v>
+        <v>36.11748881216883</v>
       </c>
       <c r="H45" t="n">
         <v>36.11748881216883</v>
@@ -7730,25 +7730,25 @@
         <v>58.8570459887346</v>
       </c>
       <c r="K45" t="n">
-        <v>161.7101484975363</v>
+        <v>410.3322156822647</v>
       </c>
       <c r="L45" t="n">
-        <v>513.1853181910665</v>
+        <v>578.740556617411</v>
       </c>
       <c r="M45" t="n">
-        <v>722.291873066082</v>
+        <v>787.8471114924266</v>
       </c>
       <c r="N45" t="n">
-        <v>946.2984754279016</v>
+        <v>1011.853713854246</v>
       </c>
       <c r="O45" t="n">
-        <v>1168.234873491</v>
+        <v>1218.445608688969</v>
       </c>
       <c r="P45" t="n">
-        <v>1308.544900753902</v>
+        <v>1358.755635951871</v>
       </c>
       <c r="Q45" t="n">
-        <v>1369.890960533466</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="R45" t="n">
         <v>1420.101695731435</v>
@@ -7757,22 +7757,22 @@
         <v>1307.652556102447</v>
       </c>
       <c r="T45" t="n">
-        <v>1135.547264475141</v>
+        <v>1307.652556102447</v>
       </c>
       <c r="U45" t="n">
-        <v>1135.547264475141</v>
+        <v>1307.652556102447</v>
       </c>
       <c r="V45" t="n">
-        <v>913.0072628462076</v>
+        <v>1085.112554473514</v>
       </c>
       <c r="W45" t="n">
-        <v>913.0072628462076</v>
+        <v>854.9953086068008</v>
       </c>
       <c r="X45" t="n">
-        <v>723.7001851962193</v>
+        <v>665.6882309568125</v>
       </c>
       <c r="Y45" t="n">
-        <v>544.3859682717266</v>
+        <v>486.3740140323197</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>351.2744923872517</v>
+        <v>487.8179515843966</v>
       </c>
       <c r="C46" t="n">
-        <v>351.2744923872517</v>
+        <v>487.8179515843966</v>
       </c>
       <c r="D46" t="n">
-        <v>195.6413792897665</v>
+        <v>332.1848384869114</v>
       </c>
       <c r="E46" t="n">
-        <v>195.6413792897665</v>
+        <v>332.1848384869114</v>
       </c>
       <c r="F46" t="n">
-        <v>195.6413792897665</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="G46" t="n">
-        <v>28.4020339146287</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="H46" t="n">
         <v>28.4020339146287</v>
@@ -7806,22 +7806,22 @@
         <v>28.4020339146287</v>
       </c>
       <c r="J46" t="n">
-        <v>28.4020339146287</v>
+        <v>68.94056019848826</v>
       </c>
       <c r="K46" t="n">
-        <v>95.62328616137796</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L46" t="n">
-        <v>407.6083061669422</v>
+        <v>327.3793491007137</v>
       </c>
       <c r="M46" t="n">
-        <v>749.7947607197111</v>
+        <v>541.290624337506</v>
       </c>
       <c r="N46" t="n">
-        <v>1085.172439251226</v>
+        <v>876.6683028690204</v>
       </c>
       <c r="O46" t="n">
-        <v>1388.447497737759</v>
+        <v>1179.943361355554</v>
       </c>
       <c r="P46" t="n">
         <v>1420.101695731435</v>
@@ -7833,25 +7833,25 @@
         <v>1341.825691515931</v>
       </c>
       <c r="S46" t="n">
-        <v>1341.825691515931</v>
+        <v>1156.693209909606</v>
       </c>
       <c r="T46" t="n">
-        <v>1110.442212474582</v>
+        <v>996.3134567881024</v>
       </c>
       <c r="U46" t="n">
-        <v>825.0587684542324</v>
+        <v>710.9300127677533</v>
       </c>
       <c r="V46" t="n">
-        <v>825.0587684542324</v>
+        <v>710.9300127677533</v>
       </c>
       <c r="W46" t="n">
-        <v>541.72836638541</v>
+        <v>710.9300127677533</v>
       </c>
       <c r="X46" t="n">
-        <v>351.2744923872517</v>
+        <v>710.9300127677533</v>
       </c>
       <c r="Y46" t="n">
-        <v>351.2744923872517</v>
+        <v>487.8179515843966</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>70.70662222204716</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>162.6219784380123</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7866589150714</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.29589056427804</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.4725364634484</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K13" t="n">
-        <v>166.520275497658</v>
+        <v>102.9119302609461</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
@@ -8862,13 +8862,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>62.21356188805828</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.6525087351951</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>128.7561286178896</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>267.4086373530848</v>
       </c>
       <c r="R15" t="n">
-        <v>20.29589056427804</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.52453011611551</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N16" t="n">
-        <v>258.3579458657233</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>35.04709801211492</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>267.4086373530847</v>
+        <v>267.4086373530844</v>
       </c>
       <c r="R18" t="n">
-        <v>20.29589056427804</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.52453011611551</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>78.14703162148166</v>
+        <v>81.03935057194863</v>
       </c>
       <c r="M19" t="n">
         <v>278.4750710187352</v>
@@ -9336,13 +9336,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>70.70662222204697</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>267.4086373530847</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>20.29589056427804</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.52453011611551</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>244.6673071191396</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>62.21356188805908</v>
       </c>
       <c r="P22" t="n">
         <v>210.6102387699041</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>162.6219784380125</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.06874457368976</v>
+        <v>70.7066222220469</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427804</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>203.7193007718067</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>278.4750710187352</v>
@@ -9810,13 +9810,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>81.03935057194872</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061974</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>143.8066816348634</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>267.4086373530847</v>
+        <v>123.601955718221</v>
       </c>
       <c r="R27" t="n">
         <v>20.29589056427804</v>
@@ -10035,25 +10035,25 @@
         <v>11.52453011611551</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N28" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>244.6673071191397</v>
+        <v>180.2972215526899</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061974</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>70.70662222204696</v>
       </c>
       <c r="L30" t="n">
-        <v>184.9159886448322</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.49264870825145</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>20.29589056427804</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.52453011611551</v>
+        <v>26.86137431838878</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
-        <v>15.33684420227232</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>268.0356382773604</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>162.6219784380125</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>54.06874457368988</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>267.4086373530844</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427804</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,16 +10509,16 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>253.4605344048249</v>
+        <v>50.88966402073207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N34" t="n">
-        <v>242.4244761323007</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>254.3449995307766</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>216.6907230117022</v>
+        <v>70.7066222220469</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427804</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>124.7741113328214</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
-        <v>75.90420063464276</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061974</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>54.06874457368895</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>19.98870788066353</v>
       </c>
       <c r="O39" t="n">
-        <v>162.6219784380123</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>11.52453011611551</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>50.88966402073154</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>254.3449995307766</v>
+        <v>122.8718220452325</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061974</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>70.70662222204628</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>54.11051368578356</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>213.2981236673013</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.52453011611551</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>37.19902527414784</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11232,13 +11232,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.25732265765524</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>251.1334011966954</v>
       </c>
       <c r="L45" t="n">
-        <v>184.9159886448322</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>31.77473436686924</v>
+        <v>16.27523615638847</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427804</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.52453011611551</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>35.04709801211398</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>278.4750710187352</v>
+        <v>148.904182820779</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -11472,7 +11472,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
         <v>14.35992901061974</v>
@@ -23260,25 +23260,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>60.19767035269501</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>43.53226570176219</v>
+        <v>43.53226570176184</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>406.7916305480175</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H11" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.61552188340787</v>
+        <v>6.068740454051365</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0160424770386</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.50037805574618</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>96.78765467395918</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I12" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U12" t="n">
         <v>207.8836805229861</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>88.92653016337992</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23427,13 +23427,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.2954312420916</v>
       </c>
       <c r="G13" t="n">
         <v>165.5669519213864</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S13" t="n">
         <v>183.2811567902616</v>
       </c>
       <c r="T13" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>100.4787552657571</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.46437432142397</v>
+        <v>41.46437432142386</v>
       </c>
       <c r="C14" t="n">
-        <v>358.1046374433877</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>85.85129623455879</v>
       </c>
       <c r="F14" t="n">
-        <v>57.70007015246307</v>
+        <v>57.70007015246296</v>
       </c>
       <c r="G14" t="n">
-        <v>406.7916305480175</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I14" t="n">
-        <v>50.61552188340787</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>253.0160424770386</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.207864427130628</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>139.2240888090689</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>81.94796642797604</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5669519213864</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>81.87990490737725</v>
       </c>
       <c r="I16" t="n">
         <v>101.5535788905865</v>
@@ -23703,13 +23703,13 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S16" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.46437432142397</v>
+        <v>238.1271445209504</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,10 +23740,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>43.53226570176196</v>
       </c>
       <c r="F17" t="n">
-        <v>304.9783622353974</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>406.7916305480175</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>12.26362074853648</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.50037805574595</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H18" t="n">
-        <v>75.84199783012949</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>55.46412559884578</v>
+        <v>60.64508902359952</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
@@ -23892,19 +23892,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.992301087403</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>47.29454864963074</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>155.6995224789251</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>34.21832254923976</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>26.56129356264</v>
       </c>
       <c r="E20" t="n">
-        <v>43.53226570176196</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>54.1255213809532</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T20" t="n">
         <v>211.4621965088955</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>25.97934780345491</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>30.5326550834148</v>
       </c>
       <c r="Y20" t="n">
-        <v>37.50037805574595</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>67.59598524629054</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -24068,7 +24068,7 @@
         <v>75.84199783012949</v>
       </c>
       <c r="I21" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>125.2737224462536</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>18.36742515432252</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24141,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.992301087403</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T22" t="n">
-        <v>75.3306733937045</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>83.78340485422103</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>34.21832254923976</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>26.56129356264</v>
       </c>
       <c r="E23" t="n">
-        <v>43.53226570176196</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24223,7 +24223,7 @@
         <v>406.7916305480175</v>
       </c>
       <c r="H23" t="n">
-        <v>82.67676326526507</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I23" t="n">
         <v>50.61552188340787</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T23" t="n">
         <v>211.4621965088955</v>
@@ -24265,13 +24265,13 @@
         <v>253.0160424770386</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>12.26362074853648</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>30.5326550834148</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>82.79233036262112</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H24" t="n">
         <v>75.84199783012949</v>
       </c>
       <c r="I24" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>78.41719746343675</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>150.255170775285</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24381,10 +24381,10 @@
         <v>165.5669519213864</v>
       </c>
       <c r="H25" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>127.7085472105569</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>34.21832254923976</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24457,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>51.76620661515852</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H26" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.61552188340787</v>
+        <v>19.47641284469684</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>113.8158723039764</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>164.0354663344087</v>
+        <v>12.26362074853648</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>30.5326550834148</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>46.78064339431727</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
@@ -24542,7 +24542,7 @@
         <v>75.84199783012949</v>
       </c>
       <c r="I27" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>120.6153702654315</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.53487613479962</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>101.5535788905865</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>240.7826887584589</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>377.8187101789669</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>43.53226570176196</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>12.26362074853671</v>
+        <v>363.5210373648631</v>
       </c>
       <c r="X29" t="n">
-        <v>30.53265508341502</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574595</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>53.84457013631879</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U30" t="n">
-        <v>26.42103296354384</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5669519213864</v>
@@ -24858,7 +24858,7 @@
         <v>144.992301087403</v>
       </c>
       <c r="I31" t="n">
-        <v>101.5535788905865</v>
+        <v>91.61259150100435</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T31" t="n">
-        <v>170.1471583664188</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>34.21832254923982</v>
       </c>
       <c r="D32" t="n">
-        <v>39.13296897544984</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>57.70007015246313</v>
       </c>
       <c r="G32" t="n">
-        <v>406.7916305480175</v>
+        <v>94.08523714795524</v>
       </c>
       <c r="H32" t="n">
         <v>297.9069670906929</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U32" t="n">
         <v>253.0160424770386</v>
@@ -24979,10 +24979,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>12.26362074853648</v>
+        <v>12.26362074853654</v>
       </c>
       <c r="X32" t="n">
-        <v>30.5326550834148</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>14.69229186194501</v>
       </c>
       <c r="H33" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>28.91405210754078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.3249667200985</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25095,7 +25095,7 @@
         <v>144.992301087403</v>
       </c>
       <c r="I34" t="n">
-        <v>101.5535788905865</v>
+        <v>0.06775787007002521</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>43.53226570176196</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25171,10 +25171,10 @@
         <v>406.7916305480175</v>
       </c>
       <c r="H35" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>211.4621965088955</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0160424770386</v>
+        <v>31.2829036928525</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>12.26362074853648</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>30.5326550834148</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.295598163177</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>59.95768489772581</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>117.6609829984442</v>
       </c>
       <c r="H36" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>7.638300348564727</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>168.1480510015195</v>
       </c>
     </row>
     <row r="37">
@@ -25314,13 +25314,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>98.75293526395951</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,10 +25329,10 @@
         <v>165.5669519213864</v>
       </c>
       <c r="H37" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.9139301456314</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>26.56129356264023</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>43.53226570176219</v>
       </c>
       <c r="F38" t="n">
         <v>57.7000701524633</v>
       </c>
       <c r="G38" t="n">
-        <v>406.7916305480175</v>
+        <v>258.5166313353397</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I38" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U38" t="n">
         <v>253.0160424770386</v>
@@ -25456,10 +25456,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>341.0112975869177</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>37.50037805574618</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>26.68722836586629</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -25487,7 +25487,7 @@
         <v>117.6609829984442</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T39" t="n">
-        <v>59.60633248943984</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S40" t="n">
-        <v>183.2811567902616</v>
+        <v>82.70449100019461</v>
       </c>
       <c r="T40" t="n">
-        <v>84.65294752649675</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5296095801456</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>76.53735308203682</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>26.56129356264017</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,7 +25642,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>51.76620661515852</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H41" t="n">
         <v>297.9069670906929</v>
@@ -25681,22 +25681,22 @@
         <v>113.8158723039764</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U41" t="n">
         <v>253.0160424770386</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>12.26362074853648</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>267.974199395765</v>
+        <v>30.53265508341497</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574613</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>117.7739123031634</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U42" t="n">
-        <v>1.627885035523718</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S43" t="n">
-        <v>78.49357963131136</v>
+        <v>14.9176192176121</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.46437432142415</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>190.3532253860131</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>121.2146823063466</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25882,7 +25882,7 @@
         <v>406.7916305480175</v>
       </c>
       <c r="H44" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>50.61552188340787</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T44" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>12.26362074853665</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>111.9416133000317</v>
       </c>
       <c r="G45" t="n">
-        <v>97.73438833504088</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U45" t="n">
         <v>207.8836805229861</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H46" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>101.5535788905865</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>70.29368866064701</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>43.19018373667001</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370511.220442032</v>
+        <v>370511.2204420324</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370511.2204420323</v>
+        <v>370511.2204420322</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370511.220442032</v>
+        <v>370511.2204420322</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>370511.220442032</v>
+        <v>370511.2204420322</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370511.2204420323</v>
+        <v>370511.2204420322</v>
       </c>
     </row>
     <row r="16">
@@ -26325,37 +26325,37 @@
         <v>310129.9453614767</v>
       </c>
       <c r="F2" t="n">
-        <v>310129.9453614767</v>
+        <v>310129.9453614769</v>
       </c>
       <c r="G2" t="n">
         <v>310129.9453614767</v>
       </c>
       <c r="H2" t="n">
+        <v>310129.9453614768</v>
+      </c>
+      <c r="I2" t="n">
+        <v>310129.9453614768</v>
+      </c>
+      <c r="J2" t="n">
         <v>310129.9453614767</v>
       </c>
-      <c r="I2" t="n">
-        <v>310129.9453614767</v>
-      </c>
-      <c r="J2" t="n">
-        <v>310129.9453614766</v>
-      </c>
       <c r="K2" t="n">
-        <v>310129.9453614766</v>
+        <v>310129.9453614769</v>
       </c>
       <c r="L2" t="n">
-        <v>310129.9453614767</v>
+        <v>310129.9453614769</v>
       </c>
       <c r="M2" t="n">
         <v>310129.9453614767</v>
       </c>
       <c r="N2" t="n">
-        <v>310129.9453614767</v>
+        <v>310129.9453614768</v>
       </c>
       <c r="O2" t="n">
         <v>310129.9453614769</v>
       </c>
       <c r="P2" t="n">
-        <v>310129.9453614769</v>
+        <v>310129.9453614766</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>553558.4915485295</v>
+        <v>553558.4915485296</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>88473.75574576412</v>
+        <v>88473.7557457642</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>410722.2097871767</v>
       </c>
       <c r="E4" t="n">
-        <v>23097.6273861722</v>
+        <v>23097.62738617225</v>
       </c>
       <c r="F4" t="n">
-        <v>23097.62738617224</v>
+        <v>23097.62738617225</v>
       </c>
       <c r="G4" t="n">
-        <v>23097.62738617224</v>
+        <v>23097.62738617223</v>
       </c>
       <c r="H4" t="n">
         <v>23097.62738617224</v>
@@ -26444,19 +26444,19 @@
         <v>23097.62738617224</v>
       </c>
       <c r="K4" t="n">
-        <v>23097.6273861722</v>
+        <v>23097.62738617224</v>
       </c>
       <c r="L4" t="n">
-        <v>23097.62738617224</v>
+        <v>23097.62738617223</v>
       </c>
       <c r="M4" t="n">
         <v>23097.62738617224</v>
       </c>
       <c r="N4" t="n">
-        <v>23097.6273861722</v>
+        <v>23097.62738617221</v>
       </c>
       <c r="O4" t="n">
-        <v>23097.62738617225</v>
+        <v>23097.62738617221</v>
       </c>
       <c r="P4" t="n">
         <v>23097.62738617221</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33729.78034901011</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="F5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="G5" t="n">
         <v>33729.78034901012</v>
@@ -26496,7 +26496,7 @@
         <v>33729.78034901012</v>
       </c>
       <c r="K5" t="n">
-        <v>33729.78034901011</v>
+        <v>33729.78034901012</v>
       </c>
       <c r="L5" t="n">
         <v>33729.78034901012</v>
@@ -26508,7 +26508,7 @@
         <v>33729.78034901011</v>
       </c>
       <c r="O5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901011</v>
       </c>
       <c r="P5" t="n">
         <v>33729.78034901011</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149317.6205513898</v>
+        <v>149313.2909836033</v>
       </c>
       <c r="C6" t="n">
-        <v>149317.6205513898</v>
+        <v>149313.2909836033</v>
       </c>
       <c r="D6" t="n">
-        <v>149317.6205513898</v>
+        <v>149313.2909836033</v>
       </c>
       <c r="E6" t="n">
-        <v>-300255.9539222351</v>
+        <v>-301119.4879899522</v>
       </c>
       <c r="F6" t="n">
-        <v>253302.5376262944</v>
+        <v>252439.0035585775</v>
       </c>
       <c r="G6" t="n">
-        <v>253302.5376262944</v>
+        <v>252439.0035585774</v>
       </c>
       <c r="H6" t="n">
-        <v>253302.5376262943</v>
+        <v>252439.0035585774</v>
       </c>
       <c r="I6" t="n">
-        <v>253302.5376262944</v>
+        <v>252439.0035585774</v>
       </c>
       <c r="J6" t="n">
-        <v>253302.5376262942</v>
+        <v>252439.0035585773</v>
       </c>
       <c r="K6" t="n">
-        <v>253302.5376262943</v>
+        <v>252439.0035585776</v>
       </c>
       <c r="L6" t="n">
-        <v>253302.5376262944</v>
+        <v>252439.0035585775</v>
       </c>
       <c r="M6" t="n">
-        <v>164828.7818805302</v>
+        <v>163965.2478128132</v>
       </c>
       <c r="N6" t="n">
-        <v>253302.5376262944</v>
+        <v>252439.0035585775</v>
       </c>
       <c r="O6" t="n">
-        <v>253302.5376262945</v>
+        <v>252439.0035585776</v>
       </c>
       <c r="P6" t="n">
-        <v>253302.5376262946</v>
+        <v>252439.0035585774</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="F3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="G3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="H3" t="n">
         <v>557.0749804537752</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0254239328587</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G4" t="n">
         <v>355.0254239328589</v>
@@ -26816,7 +26816,7 @@
         <v>355.0254239328589</v>
       </c>
       <c r="K4" t="n">
-        <v>355.0254239328587</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="L4" t="n">
         <v>355.0254239328589</v>
@@ -26828,7 +26828,7 @@
         <v>355.0254239328587</v>
       </c>
       <c r="O4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.0254239328588</v>
       </c>
       <c r="P4" t="n">
         <v>355.0254239328588</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0254239328587</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.0254239328587</v>
+        <v>355.025423932859</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.0254239328587</v>
+        <v>355.025423932859</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,28 +31752,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H11" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I11" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J11" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K11" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L11" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M11" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N11" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O11" t="n">
         <v>377.3301190469589</v>
@@ -31788,10 +31788,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S11" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T11" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U11" t="n">
         <v>0.1791597927087517</v>
@@ -31837,43 +31837,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I12" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J12" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K12" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M12" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N12" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O12" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P12" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R12" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S12" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T12" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H13" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I13" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J13" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K13" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L13" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M13" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N13" t="n">
         <v>153.7252974750558</v>
@@ -31937,22 +31937,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P13" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R13" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S13" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T13" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,28 +31989,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H14" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I14" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J14" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K14" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L14" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M14" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N14" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O14" t="n">
         <v>377.3301190469589</v>
@@ -32025,10 +32025,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S14" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T14" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U14" t="n">
         <v>0.1791597927087517</v>
@@ -32074,43 +32074,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I15" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J15" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K15" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M15" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N15" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O15" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P15" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R15" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S15" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T15" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H16" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I16" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J16" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K16" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L16" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M16" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N16" t="n">
         <v>153.7252974750558</v>
@@ -32174,22 +32174,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P16" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R16" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S16" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T16" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,28 +32226,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H17" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I17" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J17" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K17" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L17" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M17" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N17" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O17" t="n">
         <v>377.3301190469589</v>
@@ -32262,10 +32262,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S17" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T17" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U17" t="n">
         <v>0.1791597927087517</v>
@@ -32311,43 +32311,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I18" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J18" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K18" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L18" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M18" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N18" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O18" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P18" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R18" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S18" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T18" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H19" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I19" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J19" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K19" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L19" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M19" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N19" t="n">
         <v>153.7252974750558</v>
@@ -32411,22 +32411,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P19" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R19" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S19" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T19" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>241.8405258109653</v>
       </c>
       <c r="R41" t="n">
-        <v>140.6768291092642</v>
+        <v>140.676829109264</v>
       </c>
       <c r="S41" t="n">
         <v>51.03254720438354</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K11" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L11" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M11" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N11" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O11" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P11" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K12" t="n">
-        <v>103.8920227361633</v>
+        <v>174.5986449582105</v>
       </c>
       <c r="L12" t="n">
-        <v>170.1094352880265</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M12" t="n">
-        <v>211.2187422979955</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N12" t="n">
         <v>226.2692953149694</v>
       </c>
       <c r="O12" t="n">
-        <v>355.0254239328587</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P12" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.752375864126</v>
+        <v>61.96571694905468</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.94800634733289</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>199.3734322802402</v>
+        <v>135.7650870435283</v>
       </c>
       <c r="L13" t="n">
         <v>315.1363838440043</v>
       </c>
       <c r="M13" t="n">
-        <v>67.16781236790005</v>
+        <v>67.16781236790008</v>
       </c>
       <c r="N13" t="n">
         <v>338.7653318500146</v>
       </c>
       <c r="O13" t="n">
-        <v>114.2070052729719</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P13" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K14" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L14" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M14" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N14" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O14" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P14" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>30.76263845869282</v>
+        <v>30.76263845869285</v>
       </c>
       <c r="K15" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L15" t="n">
-        <v>308.7619440232216</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M15" t="n">
-        <v>211.2187422979955</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N15" t="n">
-        <v>355.0254239328589</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O15" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P15" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.96571694905465</v>
+        <v>329.3743543021395</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>32.85315678258225</v>
+        <v>32.85315678258227</v>
       </c>
       <c r="L16" t="n">
-        <v>61.67584943917939</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M16" t="n">
         <v>345.6428833866353</v>
       </c>
       <c r="N16" t="n">
-        <v>329.0876394383776</v>
+        <v>338.7653318500146</v>
       </c>
       <c r="O16" t="n">
         <v>306.3384429156903</v>
       </c>
       <c r="P16" t="n">
-        <v>242.5841761372536</v>
+        <v>67.02103537946444</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K17" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L17" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M17" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N17" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O17" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P17" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>30.76263845869282</v>
+        <v>30.76263845869285</v>
       </c>
       <c r="K18" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L18" t="n">
-        <v>170.1094352880265</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M18" t="n">
-        <v>211.2187422979955</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N18" t="n">
         <v>226.2692953149694</v>
       </c>
       <c r="O18" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P18" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q18" t="n">
-        <v>329.3743543021393</v>
+        <v>329.3743543021391</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.9480063473329</v>
       </c>
       <c r="K19" t="n">
-        <v>199.3734322802402</v>
+        <v>199.3734322802403</v>
       </c>
       <c r="L19" t="n">
-        <v>139.822881060661</v>
+        <v>142.715200011128</v>
       </c>
       <c r="M19" t="n">
         <v>345.6428833866353</v>
@@ -36056,13 +36056,13 @@
         <v>338.7653318500146</v>
       </c>
       <c r="O19" t="n">
-        <v>51.99344338491365</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P19" t="n">
-        <v>242.5841761372536</v>
+        <v>31.97393736734952</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K21" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L21" t="n">
-        <v>170.1094352880265</v>
+        <v>240.8160575100735</v>
       </c>
       <c r="M21" t="n">
         <v>211.2187422979955</v>
@@ -36220,7 +36220,7 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q21" t="n">
-        <v>329.3743543021393</v>
+        <v>61.96571694905465</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.94800634733289</v>
       </c>
       <c r="K22" t="n">
-        <v>32.85315678258225</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L22" t="n">
-        <v>306.343156558319</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M22" t="n">
-        <v>345.6428833866353</v>
+        <v>67.16781236790005</v>
       </c>
       <c r="N22" t="n">
         <v>338.7653318500146</v>
       </c>
       <c r="O22" t="n">
-        <v>51.99344338491365</v>
+        <v>114.2070052729727</v>
       </c>
       <c r="P22" t="n">
         <v>242.5841761372536</v>
@@ -36360,7 +36360,7 @@
         <v>72.39470526283424</v>
       </c>
       <c r="K23" t="n">
-        <v>141.8140653429617</v>
+        <v>141.8140653429613</v>
       </c>
       <c r="L23" t="n">
         <v>200.1613176180877</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K24" t="n">
         <v>103.8920227361633</v>
@@ -36451,16 +36451,16 @@
         <v>226.2692953149694</v>
       </c>
       <c r="O24" t="n">
-        <v>355.0254239328589</v>
+        <v>192.4034454948464</v>
       </c>
       <c r="P24" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.0344615227444</v>
+        <v>132.6723391711016</v>
       </c>
       <c r="R24" t="n">
-        <v>50.71791434138244</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>40.94800634733289</v>
       </c>
       <c r="K25" t="n">
-        <v>32.85315678258225</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L25" t="n">
-        <v>265.3951502109861</v>
+        <v>61.67584943917939</v>
       </c>
       <c r="M25" t="n">
         <v>345.6428833866353</v>
@@ -36530,13 +36530,13 @@
         <v>338.7653318500146</v>
       </c>
       <c r="O25" t="n">
-        <v>51.99344338491365</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P25" t="n">
-        <v>242.5841761372536</v>
+        <v>113.0132879392982</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>243.5110977956555</v>
       </c>
       <c r="N26" t="n">
-        <v>250.4806300685209</v>
+        <v>250.4806300685204</v>
       </c>
       <c r="O26" t="n">
         <v>227.7662816228625</v>
@@ -36615,7 +36615,7 @@
         <v>171.7410795248173</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257356</v>
       </c>
       <c r="R26" t="n">
         <v>0.5462295300782785</v>
@@ -36682,7 +36682,7 @@
         <v>170.1094352880265</v>
       </c>
       <c r="M27" t="n">
-        <v>211.2187422979955</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="N27" t="n">
         <v>226.2692953149694</v>
@@ -36694,7 +36694,7 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q27" t="n">
-        <v>329.3743543021393</v>
+        <v>185.5676726672757</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>32.85315678258225</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L28" t="n">
-        <v>61.67584943917939</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M28" t="n">
         <v>345.6428833866353</v>
       </c>
       <c r="N28" t="n">
-        <v>338.7653318500146</v>
+        <v>70.72969357265421</v>
       </c>
       <c r="O28" t="n">
-        <v>296.6607505040533</v>
+        <v>232.2906649376036</v>
       </c>
       <c r="P28" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283468</v>
       </c>
       <c r="K29" t="n">
         <v>141.8140653429613</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K30" t="n">
-        <v>103.8920227361633</v>
+        <v>174.5986449582103</v>
       </c>
       <c r="L30" t="n">
-        <v>355.0254239328587</v>
+        <v>170.1094352880265</v>
       </c>
       <c r="M30" t="n">
         <v>211.2187422979955</v>
@@ -36931,7 +36931,7 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q30" t="n">
-        <v>144.4583656573061</v>
+        <v>61.96571694905465</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>15.33684420227327</v>
       </c>
       <c r="K31" t="n">
         <v>32.85315678258225</v>
@@ -36998,7 +36998,7 @@
         <v>315.1363838440043</v>
       </c>
       <c r="M31" t="n">
-        <v>82.50465657017237</v>
+        <v>67.16781236790005</v>
       </c>
       <c r="N31" t="n">
         <v>338.7653318500146</v>
@@ -37162,16 +37162,16 @@
         <v>226.2692953149694</v>
       </c>
       <c r="O33" t="n">
-        <v>355.0254239328589</v>
+        <v>192.4034454948464</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7960448392476</v>
+        <v>141.7273002655577</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.96571694905465</v>
+        <v>329.3743543021391</v>
       </c>
       <c r="R33" t="n">
-        <v>50.71791434138244</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>40.94800634733289</v>
       </c>
       <c r="K34" t="n">
-        <v>32.85315678258225</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L34" t="n">
-        <v>315.1363838440043</v>
+        <v>112.5655134599115</v>
       </c>
       <c r="M34" t="n">
-        <v>67.16781236790005</v>
+        <v>345.6428833866353</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1541697049549</v>
+        <v>70.72969357265421</v>
       </c>
       <c r="O34" t="n">
         <v>306.3384429156903</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K36" t="n">
         <v>103.8920227361633</v>
@@ -37405,10 +37405,10 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q36" t="n">
-        <v>278.6564399607568</v>
+        <v>132.6723391711016</v>
       </c>
       <c r="R36" t="n">
-        <v>50.71791434138244</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>199.3734322802402</v>
       </c>
       <c r="L37" t="n">
-        <v>315.1363838440043</v>
+        <v>186.4499607720008</v>
       </c>
       <c r="M37" t="n">
-        <v>67.16781236790005</v>
+        <v>345.6428833866353</v>
       </c>
       <c r="N37" t="n">
-        <v>146.633894207297</v>
+        <v>338.7653318500146</v>
       </c>
       <c r="O37" t="n">
-        <v>306.3384429156903</v>
+        <v>51.99344338491365</v>
       </c>
       <c r="P37" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>97.34182739257312</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300779287</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K39" t="n">
         <v>103.8920227361633</v>
@@ -37630,13 +37630,13 @@
         <v>170.1094352880265</v>
       </c>
       <c r="M39" t="n">
-        <v>265.2874868716845</v>
+        <v>211.2187422979955</v>
       </c>
       <c r="N39" t="n">
-        <v>226.2692953149694</v>
+        <v>246.2580031956329</v>
       </c>
       <c r="O39" t="n">
-        <v>355.0254239328587</v>
+        <v>192.4034454948464</v>
       </c>
       <c r="P39" t="n">
         <v>141.7273002655577</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.94800634733289</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>199.3734322802402</v>
       </c>
       <c r="L40" t="n">
-        <v>61.67584943917939</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M40" t="n">
         <v>345.6428833866353</v>
       </c>
       <c r="N40" t="n">
-        <v>121.6193575933858</v>
+        <v>338.7653318500146</v>
       </c>
       <c r="O40" t="n">
-        <v>306.3384429156903</v>
+        <v>174.8652654301462</v>
       </c>
       <c r="P40" t="n">
-        <v>242.5841761372536</v>
+        <v>31.97393736734949</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>97.34182739257312</v>
       </c>
       <c r="R41" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300781584</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K42" t="n">
-        <v>103.8920227361633</v>
+        <v>174.5986449582096</v>
       </c>
       <c r="L42" t="n">
         <v>170.1094352880265</v>
@@ -37870,13 +37870,13 @@
         <v>211.2187422979955</v>
       </c>
       <c r="N42" t="n">
-        <v>280.3798090007529</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O42" t="n">
         <v>192.4034454948464</v>
       </c>
       <c r="P42" t="n">
-        <v>355.0254239328589</v>
+        <v>141.7273002655577</v>
       </c>
       <c r="Q42" t="n">
         <v>61.96571694905465</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.94800634733289</v>
       </c>
       <c r="K43" t="n">
-        <v>32.85315678258225</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L43" t="n">
-        <v>61.67584943917939</v>
+        <v>98.87487471332723</v>
       </c>
       <c r="M43" t="n">
         <v>345.6428833866353</v>
@@ -37952,13 +37952,13 @@
         <v>338.7653318500146</v>
       </c>
       <c r="O43" t="n">
-        <v>306.3384429156903</v>
+        <v>51.99344338491365</v>
       </c>
       <c r="P43" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.8973936470355</v>
+        <v>87.57508605867254</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>30.76263845869282</v>
       </c>
       <c r="K45" t="n">
-        <v>103.8920227361633</v>
+        <v>355.0254239328588</v>
       </c>
       <c r="L45" t="n">
-        <v>355.0254239328588</v>
+        <v>170.1094352880265</v>
       </c>
       <c r="M45" t="n">
         <v>211.2187422979955</v>
@@ -38110,7 +38110,7 @@
         <v>226.2692953149694</v>
       </c>
       <c r="O45" t="n">
-        <v>224.1781798617157</v>
+        <v>208.6786816512349</v>
       </c>
       <c r="P45" t="n">
         <v>141.7273002655577</v>
@@ -38119,7 +38119,7 @@
         <v>61.96571694905465</v>
       </c>
       <c r="R45" t="n">
-        <v>50.71791434138244</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.94800634733289</v>
       </c>
       <c r="K46" t="n">
-        <v>67.90025479469622</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L46" t="n">
-        <v>315.1363838440043</v>
+        <v>61.67584943917939</v>
       </c>
       <c r="M46" t="n">
-        <v>345.6428833866353</v>
+        <v>216.0719951886791</v>
       </c>
       <c r="N46" t="n">
         <v>338.7653318500146</v>
@@ -38192,7 +38192,7 @@
         <v>306.3384429156903</v>
       </c>
       <c r="P46" t="n">
-        <v>31.97393736734949</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
